--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125142a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125142a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.6160611603709727</v>
+      </c>
+      <c r="D5">
+        <v>0.7323385534723081</v>
+      </c>
+      <c r="E5">
+        <v>4.224302148500973</v>
+      </c>
+      <c r="F5">
+        <v>1.910172993421865</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.6160611603709727</v>
+        <v>1.654270488007471</v>
       </c>
       <c r="D6">
-        <v>0.7323385534723081</v>
+        <v>1.795676457034535</v>
       </c>
       <c r="E6">
-        <v>4.224302148500973</v>
+        <v>21.91092268719275</v>
       </c>
       <c r="F6">
-        <v>1.910172993421865</v>
+        <v>7.088544083274156</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.654270488007471</v>
+        <v>1.310125121029633</v>
       </c>
       <c r="D7">
-        <v>1.795676457034535</v>
+        <v>1.635957951574887</v>
       </c>
       <c r="E7">
-        <v>21.91092268719275</v>
+        <v>9.795089458055781</v>
       </c>
       <c r="F7">
-        <v>7.088544083274156</v>
+        <v>4.01019849645724</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2.615714652563777</v>
+      </c>
+      <c r="D8">
+        <v>3.576977671344874</v>
+      </c>
+      <c r="E8">
+        <v>28.9666827702602</v>
+      </c>
+      <c r="F8">
+        <v>8.962945407149929</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.310125121029633</v>
+        <v>3.940066727891677</v>
       </c>
       <c r="D9">
-        <v>1.635957951574887</v>
+        <v>6.16590184182459</v>
       </c>
       <c r="E9">
-        <v>9.795089458055781</v>
+        <v>46.13757935600952</v>
       </c>
       <c r="F9">
-        <v>4.01019849645724</v>
+        <v>10.3949887223663</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.615714652563777</v>
+        <v>3.397060623188356</v>
       </c>
       <c r="D10">
-        <v>3.576977671344874</v>
+        <v>3.699714901691328</v>
       </c>
       <c r="E10">
-        <v>28.9666827702602</v>
+        <v>20.60061087100693</v>
       </c>
       <c r="F10">
-        <v>8.962945407149929</v>
+        <v>11.13874000570868</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.940066727891677</v>
+        <v>5.111146519085924</v>
       </c>
       <c r="D11">
-        <v>6.16590184182459</v>
+        <v>7.064709459395882</v>
       </c>
       <c r="E11">
-        <v>46.13757935600952</v>
+        <v>28.73320963884508</v>
       </c>
       <c r="F11">
-        <v>10.3949887223663</v>
+        <v>12.23965757416061</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.397060623188356</v>
+        <v>2.280716983675243</v>
       </c>
       <c r="D12">
-        <v>3.699714901691328</v>
+        <v>2.806334850531253</v>
       </c>
       <c r="E12">
-        <v>20.60061087100693</v>
+        <v>16.01608673284208</v>
       </c>
       <c r="F12">
-        <v>11.13874000570868</v>
+        <v>6.706810725405877</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.111146519085924</v>
+        <v>5.348956338196384</v>
       </c>
       <c r="D13">
-        <v>7.064709459395882</v>
+        <v>6.385309887010195</v>
       </c>
       <c r="E13">
-        <v>28.73320963884508</v>
+        <v>34.63064186970728</v>
       </c>
       <c r="F13">
-        <v>12.23965757416061</v>
+        <v>15.60955876611887</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.280716983675243</v>
+        <v>2.548496765460503</v>
       </c>
       <c r="D14">
-        <v>2.806334850531253</v>
+        <v>2.931930347558844</v>
       </c>
       <c r="E14">
-        <v>16.01608673284208</v>
+        <v>28.50310771953169</v>
       </c>
       <c r="F14">
-        <v>6.706810725405877</v>
+        <v>9.863626370023058</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.348956338196384</v>
+        <v>1.309113164161715</v>
       </c>
       <c r="D15">
-        <v>6.385309887010195</v>
+        <v>1.547566329519019</v>
       </c>
       <c r="E15">
-        <v>34.63064186970728</v>
+        <v>6.972796381881408</v>
       </c>
       <c r="F15">
-        <v>15.60955876611887</v>
+        <v>3.785263740275138</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.548496765460503</v>
+        <v>5.890595896637079</v>
       </c>
       <c r="D16">
-        <v>2.931930347558844</v>
+        <v>7.07627215467186</v>
       </c>
       <c r="E16">
-        <v>28.50310771953169</v>
+        <v>22.45356907022266</v>
       </c>
       <c r="F16">
-        <v>9.863626370023058</v>
+        <v>13.58853371610599</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1.309113164161715</v>
+        <v>3.736892797968056</v>
       </c>
       <c r="D17">
-        <v>1.547566329519019</v>
+        <v>3.411344266350596</v>
       </c>
       <c r="E17">
-        <v>6.972796381881408</v>
+        <v>61.16344456795762</v>
       </c>
       <c r="F17">
-        <v>3.785263740275138</v>
+        <v>11.80518406630818</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.890595896637079</v>
+        <v>2.33286726209528</v>
       </c>
       <c r="D18">
-        <v>7.07627215467186</v>
+        <v>2.720146589998824</v>
       </c>
       <c r="E18">
-        <v>22.45356907022266</v>
+        <v>14.32002414627999</v>
       </c>
       <c r="F18">
-        <v>13.58853371610599</v>
+        <v>7.66673486688867</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.736892797968056</v>
+        <v>4.152077598234986</v>
       </c>
       <c r="D19">
-        <v>3.411344266350596</v>
+        <v>4.666600263915932</v>
       </c>
       <c r="E19">
-        <v>61.16344456795762</v>
+        <v>18.88293714555381</v>
       </c>
       <c r="F19">
-        <v>11.80518406630818</v>
+        <v>12.12670282659107</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.33286726209528</v>
+        <v>4.565510099202626</v>
       </c>
       <c r="D20">
-        <v>2.720146589998824</v>
+        <v>4.923038152024422</v>
       </c>
       <c r="E20">
-        <v>14.32002414627999</v>
+        <v>27.77507352258592</v>
       </c>
       <c r="F20">
-        <v>7.66673486688867</v>
+        <v>12.32687726784709</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.152077598234986</v>
+        <v>2.860542336647162</v>
       </c>
       <c r="D21">
-        <v>4.666600263915932</v>
+        <v>3.654543421592639</v>
       </c>
       <c r="E21">
-        <v>18.88293714555381</v>
+        <v>18.28230064169725</v>
       </c>
       <c r="F21">
-        <v>12.12670282659107</v>
+        <v>6.946115913692812</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.565510099202626</v>
+        <v>4.936944180294439</v>
       </c>
       <c r="D22">
-        <v>4.923038152024422</v>
+        <v>5.026838597746242</v>
       </c>
       <c r="E22">
-        <v>27.77507352258592</v>
+        <v>26.62906857775659</v>
       </c>
       <c r="F22">
-        <v>12.32687726784709</v>
+        <v>15.0776943884668</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.860542336647162</v>
+        <v>3.88993585354596</v>
       </c>
       <c r="D23">
-        <v>3.654543421592639</v>
+        <v>3.410301948406825</v>
       </c>
       <c r="E23">
-        <v>18.28230064169725</v>
+        <v>30.50448417596431</v>
       </c>
       <c r="F23">
-        <v>6.946115913692812</v>
+        <v>10.94044458809801</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.936944180294439</v>
+        <v>1.863534678824821</v>
       </c>
       <c r="D24">
-        <v>5.026838597746242</v>
+        <v>2.392520884661317</v>
       </c>
       <c r="E24">
-        <v>26.62906857775659</v>
+        <v>12.23944767804277</v>
       </c>
       <c r="F24">
-        <v>15.0776943884668</v>
+        <v>6.266457821207522</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.88993585354596</v>
+        <v>1.010457533654758</v>
       </c>
       <c r="D25">
-        <v>3.410301948406825</v>
+        <v>1.207886782097335</v>
       </c>
       <c r="E25">
-        <v>30.50448417596431</v>
+        <v>7.733169292198645</v>
       </c>
       <c r="F25">
-        <v>10.94044458809801</v>
+        <v>3.147195366239568</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1.863534678824821</v>
+        <v>1.590527329881113</v>
       </c>
       <c r="D26">
-        <v>2.392520884661317</v>
+        <v>1.975500851600031</v>
       </c>
       <c r="E26">
-        <v>12.23944767804277</v>
+        <v>12.18476332974207</v>
       </c>
       <c r="F26">
-        <v>6.266457821207522</v>
+        <v>5.034430772212946</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1.010457533654758</v>
+        <v>3.935397441367492</v>
       </c>
       <c r="D27">
-        <v>1.207886782097335</v>
+        <v>5.051748103184753</v>
       </c>
       <c r="E27">
-        <v>7.733169292198645</v>
+        <v>25.80024459690001</v>
       </c>
       <c r="F27">
-        <v>3.147195366239568</v>
+        <v>12.38682473348457</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1.590527329881113</v>
+        <v>2.851126274744954</v>
       </c>
       <c r="D28">
-        <v>1.975500851600031</v>
+        <v>3.183177220174978</v>
       </c>
       <c r="E28">
-        <v>12.18476332974207</v>
+        <v>20.26937403395754</v>
       </c>
       <c r="F28">
-        <v>5.034430772212946</v>
+        <v>6.669595775030217</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>3.935397441367492</v>
+        <v>1.502771392560958</v>
       </c>
       <c r="D29">
-        <v>5.051748103184753</v>
+        <v>1.797566170250739</v>
       </c>
       <c r="E29">
-        <v>25.80024459690001</v>
+        <v>11.37035087709715</v>
       </c>
       <c r="F29">
-        <v>12.38682473348457</v>
+        <v>5.026210363331348</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2.851126274744954</v>
+        <v>1.274692713243817</v>
       </c>
       <c r="D30">
-        <v>3.183177220174978</v>
+        <v>1.583502784668448</v>
       </c>
       <c r="E30">
-        <v>20.26937403395754</v>
+        <v>11.09670107007044</v>
       </c>
       <c r="F30">
-        <v>6.669595775030217</v>
+        <v>4.568601567143785</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1.502771392560958</v>
+        <v>1.938215161676061</v>
       </c>
       <c r="D31">
-        <v>1.797566170250739</v>
+        <v>2.240032573749506</v>
       </c>
       <c r="E31">
-        <v>11.37035087709715</v>
+        <v>16.73114038730371</v>
       </c>
       <c r="F31">
-        <v>5.026210363331348</v>
+        <v>7.244230165442167</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1.274692713243817</v>
+        <v>2.39595705294834</v>
       </c>
       <c r="D32">
-        <v>1.583502784668448</v>
+        <v>2.607355472490954</v>
       </c>
       <c r="E32">
-        <v>11.09670107007044</v>
+        <v>30.18813062387115</v>
       </c>
       <c r="F32">
-        <v>4.568601567143785</v>
+        <v>10.15129172433376</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1.938215161676061</v>
+        <v>2.261841083217808</v>
       </c>
       <c r="D33">
-        <v>2.240032573749506</v>
+        <v>3.084692076516231</v>
       </c>
       <c r="E33">
-        <v>16.73114038730371</v>
+        <v>17.04594516060441</v>
       </c>
       <c r="F33">
-        <v>7.244230165442167</v>
+        <v>7.190580596385754</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2.39595705294834</v>
+        <v>1.291883539262719</v>
       </c>
       <c r="D34">
-        <v>2.607355472490954</v>
+        <v>1.435176250122788</v>
       </c>
       <c r="E34">
-        <v>30.18813062387115</v>
+        <v>9.378232460225416</v>
       </c>
       <c r="F34">
-        <v>10.15129172433376</v>
+        <v>4.780533161961411</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>2.261841083217808</v>
+        <v>2.556281920727231</v>
       </c>
       <c r="D35">
-        <v>3.084692076516231</v>
+        <v>3.12710597185599</v>
       </c>
       <c r="E35">
-        <v>17.04594516060441</v>
+        <v>19.81955653875852</v>
       </c>
       <c r="F35">
-        <v>7.190580596385754</v>
+        <v>9.155056181209151</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1.291883539262719</v>
+        <v>2.611044429671053</v>
       </c>
       <c r="D36">
-        <v>1.435176250122788</v>
+        <v>3.025458995928114</v>
       </c>
       <c r="E36">
-        <v>9.378232460225416</v>
+        <v>23.66726915646384</v>
       </c>
       <c r="F36">
-        <v>4.780533161961411</v>
+        <v>8.367925521596385</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>2.556281920727231</v>
+        <v>2.132132187728255</v>
       </c>
       <c r="D37">
-        <v>3.12710597185599</v>
+        <v>2.293494739890281</v>
       </c>
       <c r="E37">
-        <v>19.81955653875852</v>
+        <v>14.73682693496528</v>
       </c>
       <c r="F37">
-        <v>9.155056181209151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>2.611044429671053</v>
-      </c>
-      <c r="D38">
-        <v>3.025458995928114</v>
-      </c>
-      <c r="E38">
-        <v>23.66726915646384</v>
-      </c>
-      <c r="F38">
-        <v>8.367925521596385</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>2.132132187728255</v>
-      </c>
-      <c r="D39">
-        <v>2.293494739890281</v>
-      </c>
-      <c r="E39">
-        <v>14.73682693496528</v>
-      </c>
-      <c r="F39">
         <v>8.796641181705196</v>
       </c>
     </row>
